--- a/Project Risk Assessment.xlsx
+++ b/Project Risk Assessment.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\Dropbox\Kieran Third year\BCIT254 Interactive Media Application Development\InteractiveMediaProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C9E368-9A97-41D4-8570-7CFE40D26653}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18C2ACD-C504-4914-A023-DC9F73F73AA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="4" r:id="rId1"/>
+    <sheet name="Midpoint" sheetId="6" r:id="rId2"/>
+    <sheet name="Final" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -150,7 +152,7 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
           </rPr>
-          <t>Use this column to document what plans the team has to prevent the risk or to reduce the impact before occurance. This may require creating a separate, more detailed plan.</t>
+          <t>Use this column to document what plans the team has to prevent the risk or to reduce the impact before occurrence. This may require creating a separate, more detailed plan.</t>
         </r>
       </text>
     </comment>
@@ -168,6 +170,320 @@
       </text>
     </comment>
     <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Use this column to identify what would prompt you to execute the contingency plan.  A trigger is usually a date or some sort of threshold.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rod Fergusson</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{586AA510-FEB3-46F3-80F2-C0C40ABF1888}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Articulate the scale being used for probability inside of the parenthesis. 
+ E.g. (1-100%)
+Note: 100% would mean the item is no longer a risk and has become a problem.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{0849B4DA-8A98-4AE9-91BD-D5E2220E7834}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Articulate the scale being used for impact inside the parenthesis.
+E.g. (1-10).
+Note: scale must have the same range as the probability.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{C812C2ED-1EB7-4618-923F-EB1FB9F8342D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Use this column as the risk identifier which, allows each risk to be uniquely identified.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{02A5BC79-9352-48B6-8459-41871FB204C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Use this column to capture the "likely cause" of the risk.  Be detailed enough so that you can start forming mitigation plans.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{2E92A081-3DCF-4098-8C34-4A13E279FAA7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Use this column to capture the result of the risk, should it happen.  If the consequences cannot be mitigated, you will have to dealt with them in a contingency plan.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{D6C5A8ED-A2A0-4FBA-9D9C-DA4593883590}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Use this column to estimate the probability the risk will occur.  Suggest using a percentage-based scale (1-99%).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{3D77C82A-80EB-4E19-BF8D-12C967541222}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Use this column to estimate the amount of impact or severity of the risk. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{0B8F42AD-B2AA-4E6E-9B3E-B27BE0E6482A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>This column is computed as probability x impact.  Once all risks have been entered, sort by this column to identify your biggest risks.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{8858FFE1-2EAE-46E5-8AD3-C71A3D934895}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Use this column to document what plans the team has to prevent the risk or to reduce the impact before occurrence. This may require creating a separate, more detailed plan.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{5D46AD4B-F120-4EB8-9CC7-EDB87DC24ADB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Use this column to identify what will need to be done if the risk  becomes reality.  This may require creating a separate, more detailed plan.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{BC931ECE-CE2E-438C-9FEB-D72369F1BB24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Use this column to identify what would prompt you to execute the contingency plan.  A trigger is usually a date or some sort of threshold.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rod Fergusson</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{E32CE076-0741-4761-9211-BEB77AD42C8B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Articulate the scale being used for probability inside of the parenthesis. 
+ E.g. (1-100%)
+Note: 100% would mean the item is no longer a risk and has become a problem.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{BFE3A899-8B90-4BCA-B1CB-E668CFAF9A8D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Articulate the scale being used for impact inside the parenthesis.
+E.g. (1-10).
+Note: scale must have the same range as the probability.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{41BE15DB-F866-4B88-9D8E-90FC4111EF56}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Use this column as the risk identifier which, allows each risk to be uniquely identified.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{852679D9-7763-446D-B296-0903F1FD5F85}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Use this column to capture the "likely cause" of the risk.  Be detailed enough so that you can start forming mitigation plans.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{6706CC0F-6CD2-49A9-8860-DB266040D887}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Use this column to capture the result of the risk, should it happen.  If the consequences cannot be mitigated, you will have to dealt with them in a contingency plan.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{E01B282C-3CCA-4AAF-AD5E-2939B87F16BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Use this column to estimate the probability the risk will occur.  Suggest using a percentage-based scale (1-99%).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{8BC045C2-B230-4927-B416-779C04077F55}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Use this column to estimate the amount of impact or severity of the risk. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{16C36F02-082E-48B1-991B-C639E95810E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>This column is computed as probability x impact.  Once all risks have been entered, sort by this column to identify your biggest risks.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{66AD5F96-7F9A-496E-A264-895B20C7D4C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Use this column to document what plans the team has to prevent the risk or to reduce the impact before occurrence. This may require creating a separate, more detailed plan.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{B895F441-16DE-44DA-BA19-FE36ED770DAE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Use this column to identify what will need to be done if the risk  becomes reality.  This may require creating a separate, more detailed plan.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{244F2119-B644-402A-9C26-E850BE8330C7}">
       <text>
         <r>
           <rPr>
@@ -185,7 +501,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -314,6 +630,51 @@
   </si>
   <si>
     <t>Scale back features</t>
+  </si>
+  <si>
+    <t>Delays during my overseas trip</t>
+  </si>
+  <si>
+    <t>Missing key deadlines like protype presentation</t>
+  </si>
+  <si>
+    <t>Try do as much work overseas as possible</t>
+  </si>
+  <si>
+    <t>Weather, World events, Local issues with the airport</t>
+  </si>
+  <si>
+    <t>Update the class and David on any delays</t>
+  </si>
+  <si>
+    <t>Can't do as much work overseas</t>
+  </si>
+  <si>
+    <t>Issues with new laptop running visual studio</t>
+  </si>
+  <si>
+    <t>Laptop not powerful enough to run some aspect of visual studio</t>
+  </si>
+  <si>
+    <t>Try to complete other coarse work while overseas, leaving more time for the project</t>
+  </si>
+  <si>
+    <t>Ask for extension on especially prototype presentation</t>
+  </si>
+  <si>
+    <t>M6.0-6.9 earthquakes has decreased from 46% to 44%</t>
+  </si>
+  <si>
+    <t>Might not be in Christchurch Central</t>
+  </si>
+  <si>
+    <t>Not much I can do</t>
+  </si>
+  <si>
+    <t>Christchurch earthquake</t>
+  </si>
+  <si>
+    <t>Shut down of ARA and delay in semester</t>
   </si>
 </sst>
 </file>
@@ -864,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" ref="F9:F14" si="0">D9*E9</f>
+        <f t="shared" ref="F9:F11" si="0">D9*E9</f>
         <v>1.6</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -1294,6 +1655,982 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE76B502-A5CB-41C5-93FF-137031E2DA70}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="9" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="12">
+        <v>99162780</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7">
+        <f>D7*E7</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7">
+        <f>D8*E8</f>
+        <v>2.4</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" ref="F9:F13" si="0">D9*E9</f>
+        <v>1.6</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="7">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="7">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>8</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>14</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>15</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>16</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>17</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>18</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71733AD0-0FBD-4788-9017-B0176240D9AE}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="9" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="12">
+        <v>99162780</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7">
+        <f>D7*E7</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7">
+        <f>D8*E8</f>
+        <v>2.4</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" ref="F9:F14" si="0">D9*E9</f>
+        <v>1.6</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="7">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="7">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>8</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>14</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>15</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>16</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>17</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>18</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>